--- a/src/GGRidges/txpositivo.xlsx
+++ b/src/GGRidges/txpositivo.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20398"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luciana\Documents\App\App2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\windows\Documents\ggridges\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3F04DA3-B12A-4569-A3CC-96492A0EDEB5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -71,9 +72,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -139,7 +140,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -419,7 +420,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
